--- a/Hoadon/HDRa/5/HDDienTuMayTinhTien.xlsx
+++ b/Hoadon/HDRa/5/HDDienTuMayTinhTien.xlsx
@@ -194,12 +194,14 @@
     <col min="7" max="7" width="31.25" customWidth="true"/>
     <col min="8" max="8" width="31.25" customWidth="true"/>
     <col min="9" max="9" width="31.25" customWidth="true"/>
-    <col min="10" max="10" width="11.71875" customWidth="true"/>
-    <col min="11" max="11" width="11.71875" customWidth="true"/>
-    <col min="12" max="12" width="19.53125" customWidth="true"/>
-    <col min="13" max="13" width="19.53125" customWidth="true"/>
+    <col min="10" max="10" width="31.25" customWidth="true"/>
+    <col min="11" max="11" width="31.25" customWidth="true"/>
+    <col min="12" max="12" width="11.71875" customWidth="true"/>
+    <col min="13" max="13" width="11.71875" customWidth="true"/>
     <col min="14" max="14" width="19.53125" customWidth="true"/>
-    <col min="15" max="15" width="50.78125" customWidth="true"/>
+    <col min="15" max="15" width="19.53125" customWidth="true"/>
+    <col min="16" max="16" width="19.53125" customWidth="true"/>
+    <col min="17" max="17" width="50.78125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -212,7 +214,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Từ ngày 01/05/2025 đến ngày 31/05/2025</t>
+          <t>Từ ngày 10/05/2025 đến ngày 10/05/2025</t>
         </is>
       </c>
     </row>
@@ -244,50 +246,60 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
+          <t>MST người bán/MST người xuất hàng</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Tên người bán/Tên người xuất hàng</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
           <t>MST người mua/MST người nhận hàng</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>Tên người mua/Tên người nhận hàng</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>Địa chỉ người mua</t>
         </is>
       </c>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>Căn cước công dân</t>
         </is>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền chưa thuế</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền thuế</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền chiết khấu thương mại</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền thanh toán</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>Trạng thái hóa đơn</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>Kết quả kiểm tra hóa đơn</t>
         </is>
@@ -295,8 +307,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
